--- a/results/comparaison/WM/retardance/median_normalized.xlsx
+++ b/results/comparaison/WM/retardance/median_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,603 +966,1449 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6570165668729846</v>
+        <v>0.6513718142748511</v>
+      </c>
+      <c r="C3">
+        <v>0.2576051538448274</v>
+      </c>
+      <c r="D3">
+        <v>0.2069287516997816</v>
       </c>
       <c r="E3">
-        <v>0.6105092059722943</v>
+        <v>0.7765394675230568</v>
       </c>
       <c r="F3">
-        <v>0.403055660990024</v>
+        <v>0.6052301883866378</v>
+      </c>
+      <c r="G3">
+        <v>0.4694127887043038</v>
       </c>
       <c r="H3">
-        <v>0.681506281618269</v>
+        <v>0.3890628892098474</v>
       </c>
       <c r="I3">
-        <v>0.5019648406888422</v>
+        <v>0.3342233576797291</v>
+      </c>
+      <c r="J3">
+        <v>0.6505561518710192</v>
       </c>
       <c r="K3">
-        <v>0.7754738753709473</v>
+        <v>0.4964563024092146</v>
+      </c>
+      <c r="L3">
+        <v>0.3506895255105847</v>
       </c>
       <c r="M3">
-        <v>0.6868497509344674</v>
+        <v>0.6685836418836405</v>
       </c>
       <c r="N3">
-        <v>0.6871217369417413</v>
+        <v>0.6968531344397572</v>
       </c>
       <c r="O3">
-        <v>0.6580880506958221</v>
+        <v>0.9335914916060284</v>
       </c>
       <c r="P3">
-        <v>0.5666284153431795</v>
+        <v>0.663768775591336</v>
+      </c>
+      <c r="Q3">
+        <v>0.6358663898644847</v>
+      </c>
+      <c r="R3">
+        <v>0.5033743501264989</v>
       </c>
       <c r="S3">
-        <v>0.487786263604164</v>
+        <v>0.5119940879486413</v>
+      </c>
+      <c r="T3">
+        <v>0.3890976019304189</v>
+      </c>
+      <c r="U3">
+        <v>1.887898067579143</v>
+      </c>
+      <c r="V3">
+        <v>0.4486947263494352</v>
       </c>
       <c r="W3">
-        <v>0.4761325973308028</v>
+        <v>0.4272420012545248</v>
+      </c>
+      <c r="X3">
+        <v>0.8185753935850223</v>
       </c>
       <c r="Y3">
-        <v>0.7570285147914781</v>
+        <v>0.7565925523687156</v>
       </c>
       <c r="Z3">
-        <v>0.9766902184201522</v>
+        <v>1.011921686571276</v>
       </c>
       <c r="AA3">
-        <v>0.5603940818646521</v>
+        <v>0.5989651633481814</v>
       </c>
       <c r="AB3">
-        <v>0.8900316918120227</v>
+        <v>0.434501068162822</v>
+      </c>
+      <c r="AC3">
+        <v>0.5445983323898719</v>
+      </c>
+      <c r="AD3">
+        <v>0.8524095274645114</v>
+      </c>
+      <c r="AF3">
+        <v>0.9457531749313197</v>
+      </c>
+      <c r="AG3">
+        <v>0.6653297669696389</v>
+      </c>
+      <c r="AH3">
+        <v>0.2567207337935759</v>
+      </c>
+      <c r="AI3">
+        <v>0.6625656860199249</v>
+      </c>
+      <c r="AJ3">
+        <v>0.5469956366565573</v>
+      </c>
+      <c r="AL3">
+        <v>0.4870661958280421</v>
+      </c>
+      <c r="AM3">
+        <v>0.8067501119671124</v>
+      </c>
+      <c r="AN3">
+        <v>0.5401745276376986</v>
+      </c>
+      <c r="AO3">
+        <v>0.5264320029086993</v>
+      </c>
+      <c r="AP3">
+        <v>0.9514814379899882</v>
       </c>
       <c r="AQ3">
-        <v>0.8496199834665782</v>
+        <v>0.7135239963538188</v>
       </c>
       <c r="AR3">
-        <v>0.8292165746761445</v>
+        <v>0.3453741700302336</v>
       </c>
       <c r="AS3">
-        <v>0.7742467801066875</v>
+        <v>1.023147279363559</v>
       </c>
       <c r="AT3">
-        <v>0.8376402500679091</v>
+        <v>0.6675812380349879</v>
       </c>
       <c r="AU3">
-        <v>0.9431616070471225</v>
+        <v>0.3322847301242174</v>
+      </c>
+      <c r="AV3">
+        <v>0.7738789238998853</v>
       </c>
       <c r="AX3">
-        <v>0.6666102955741469</v>
+        <v>0.4609469790975612</v>
+      </c>
+      <c r="AY3">
+        <v>0.4303999371401865</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9673795178481778</v>
+      </c>
+      <c r="BA3">
+        <v>0.551504031797613</v>
       </c>
       <c r="BB3">
-        <v>0.9143107583948593</v>
+        <v>0.7918655396222167</v>
       </c>
       <c r="BC3">
-        <v>0.8674648806409679</v>
+        <v>0.323177909610169</v>
+      </c>
+      <c r="BD3">
+        <v>0.6041856968982998</v>
+      </c>
+      <c r="BE3">
+        <v>0.3192765293589869</v>
       </c>
       <c r="BF3">
-        <v>0.5345461600319291</v>
+        <v>0.5866524686804209</v>
+      </c>
+      <c r="BG3">
+        <v>0.7722450988337725</v>
+      </c>
+      <c r="BH3">
+        <v>0.6032194630489996</v>
       </c>
       <c r="BI3">
-        <v>0.8725390901984543</v>
+        <v>0.635522152761827</v>
       </c>
       <c r="BJ3">
-        <v>0.5373500416629913</v>
+        <v>0.4432550033636061</v>
       </c>
       <c r="BK3">
-        <v>0.8013644310143635</v>
+        <v>0.3175497964116423</v>
+      </c>
+      <c r="BM3">
+        <v>0.5971801494506384</v>
+      </c>
+      <c r="BN3">
+        <v>0.3233804117804353</v>
       </c>
       <c r="BO3">
-        <v>0.5949763872542602</v>
+        <v>0.8725920418014727</v>
       </c>
       <c r="BP3">
-        <v>0.6860137170909647</v>
+        <v>1.183490610731611</v>
       </c>
       <c r="BQ3">
-        <v>0.684337273448224</v>
+        <v>0.9119161468650795</v>
       </c>
       <c r="BR3">
-        <v>0.5821703567096717</v>
+        <v>0.604366832710358</v>
       </c>
       <c r="BS3">
-        <v>0.659678536301279</v>
+        <v>0.8090337138298306</v>
+      </c>
+      <c r="BT3">
+        <v>0.8237823448588221</v>
       </c>
       <c r="BU3">
-        <v>0.9186012606086197</v>
+        <v>0.6655248038118221</v>
       </c>
       <c r="BV3">
-        <v>0.6804376156620513</v>
+        <v>0.2728314649230143</v>
+      </c>
+      <c r="BW3">
+        <v>1.039376864017143</v>
+      </c>
+      <c r="BX3">
+        <v>0.6074527108651379</v>
+      </c>
+      <c r="BY3">
+        <v>1.042524158706126</v>
+      </c>
+      <c r="BZ3">
+        <v>0.4078373732065396</v>
+      </c>
+      <c r="CA3">
+        <v>0.5118107804555246</v>
+      </c>
+      <c r="CB3">
+        <v>1.122823562815438</v>
+      </c>
+      <c r="CC3">
+        <v>0.6959987475012108</v>
+      </c>
+      <c r="CD3">
+        <v>0.8609652210951398</v>
+      </c>
+      <c r="CE3">
+        <v>0.2950962045045967</v>
+      </c>
+      <c r="CF3">
+        <v>1.535699845513963</v>
       </c>
       <c r="CG3">
-        <v>1.383987115034164</v>
+        <v>2.607740086264162</v>
+      </c>
+      <c r="CH3">
+        <v>0.7797210519604763</v>
+      </c>
+      <c r="CI3">
+        <v>0.7951422342219795</v>
       </c>
       <c r="CK3">
-        <v>0.9272078803406109</v>
+        <v>0.8486845563894372</v>
+      </c>
+      <c r="CL3">
+        <v>0.3544222552378328</v>
+      </c>
+      <c r="CM3">
+        <v>2.045130566808087</v>
       </c>
       <c r="CN3">
-        <v>1.156208385187937</v>
+        <v>1.185113191464877</v>
+      </c>
+      <c r="CO3">
+        <v>0.8567549642257843</v>
+      </c>
+      <c r="CP3">
+        <v>1.161429294417629</v>
+      </c>
+      <c r="CQ3">
+        <v>1.573119529900913</v>
+      </c>
+      <c r="CR3">
+        <v>0.4940607135598251</v>
+      </c>
+      <c r="CS3">
+        <v>2.256209262393147</v>
+      </c>
+      <c r="CT3">
+        <v>0.2358839411929883</v>
+      </c>
+      <c r="CU3">
+        <v>0.2741985396832182</v>
+      </c>
+      <c r="CV3">
+        <v>0.5541726178657153</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6545941988081609</v>
+        <v>0.6374789402460943</v>
+      </c>
+      <c r="C4">
+        <v>0.3616001271221586</v>
+      </c>
+      <c r="D4">
+        <v>0.2330223007022615</v>
       </c>
       <c r="E4">
-        <v>0.6243531406632762</v>
+        <v>0.6159221759350405</v>
       </c>
       <c r="F4">
-        <v>0.3868645516833116</v>
+        <v>0.5801476091218852</v>
       </c>
       <c r="H4">
-        <v>0.7618427797739301</v>
+        <v>0.3679625440804049</v>
       </c>
       <c r="I4">
-        <v>0.6451944290792315</v>
+        <v>0.5980034208372059</v>
+      </c>
+      <c r="J4">
+        <v>0.7195163231796671</v>
       </c>
       <c r="K4">
-        <v>0.8742182667288755</v>
+        <v>0.6329458146707994</v>
+      </c>
+      <c r="L4">
+        <v>0.4637192104614057</v>
       </c>
       <c r="M4">
-        <v>0.712558996732757</v>
+        <v>0.6959050349376453</v>
       </c>
       <c r="N4">
-        <v>0.7554583072230449</v>
+        <v>0.7773862020279637</v>
       </c>
       <c r="O4">
-        <v>0.7500394461642051</v>
+        <v>0.785794145082636</v>
       </c>
       <c r="P4">
-        <v>0.8569655752796121</v>
+        <v>0.7016574881431883</v>
+      </c>
+      <c r="Q4">
+        <v>0.6849697875124282</v>
+      </c>
+      <c r="R4">
+        <v>0.7921588497678875</v>
       </c>
       <c r="S4">
-        <v>0.5563726575895382</v>
+        <v>0.515218060992419</v>
+      </c>
+      <c r="T4">
+        <v>0.4114909881633425</v>
+      </c>
+      <c r="U4">
+        <v>1.101766399131707</v>
+      </c>
+      <c r="V4">
+        <v>0.4602531475310318</v>
       </c>
       <c r="W4">
-        <v>0.5636817735774485</v>
+        <v>0.4751544159142267</v>
+      </c>
+      <c r="X4">
+        <v>0.5746679303116706</v>
       </c>
       <c r="Y4">
-        <v>0.8322533204146925</v>
+        <v>0.813342228041981</v>
       </c>
       <c r="Z4">
-        <v>1.160399512801376</v>
+        <v>1.100136388045735</v>
+      </c>
+      <c r="AA4">
+        <v>0.6607761810796281</v>
       </c>
       <c r="AB4">
-        <v>0.530326962021467</v>
+        <v>0.4349763602908755</v>
+      </c>
+      <c r="AC4">
+        <v>0.5964626534098534</v>
+      </c>
+      <c r="AD4">
+        <v>0.7309458296037542</v>
+      </c>
+      <c r="AF4">
+        <v>0.6317462119638197</v>
+      </c>
+      <c r="AG4">
+        <v>0.8171418131735688</v>
       </c>
       <c r="AH4">
-        <v>0.6009984451066062</v>
+        <v>0.2393085621279863</v>
+      </c>
+      <c r="AI4">
+        <v>0.4523768609910088</v>
       </c>
       <c r="AJ4">
-        <v>0.6462241938228962</v>
-      </c>
-      <c r="AK4">
-        <v>0.3578979757095496</v>
+        <v>0.3245116502205714</v>
+      </c>
+      <c r="AL4">
+        <v>0.5619245388336073</v>
       </c>
       <c r="AM4">
-        <v>0.6567116170428766</v>
+        <v>0.916790687311991</v>
+      </c>
+      <c r="AN4">
+        <v>0.5910884366328822</v>
+      </c>
+      <c r="AO4">
+        <v>0.6147968432072479</v>
+      </c>
+      <c r="AP4">
+        <v>0.9323900765017552</v>
       </c>
       <c r="AQ4">
-        <v>0.6661208103284879</v>
+        <v>0.4606295829238979</v>
       </c>
       <c r="AR4">
-        <v>0.5598046395705697</v>
-      </c>
-      <c r="AS4">
-        <v>0.5394893123310547</v>
+        <v>0.2956050650316701</v>
       </c>
       <c r="AT4">
-        <v>0.7397976008411731</v>
+        <v>0.3466478660989129</v>
       </c>
       <c r="AU4">
-        <v>0.6624797971881651</v>
-      </c>
-      <c r="AX4">
-        <v>0.4915207434162792</v>
+        <v>0.4932108592975859</v>
+      </c>
+      <c r="AV4">
+        <v>0.6170507304969102</v>
+      </c>
+      <c r="AZ4">
+        <v>1.006247643795455</v>
+      </c>
+      <c r="BA4">
+        <v>0.590787339504795</v>
       </c>
       <c r="BB4">
-        <v>1.049630425510231</v>
+        <v>0.8460808140785805</v>
       </c>
       <c r="BC4">
-        <v>0.8178064710595115</v>
+        <v>0.331963712087704</v>
+      </c>
+      <c r="BD4">
+        <v>0.4796928056381309</v>
+      </c>
+      <c r="BE4">
+        <v>0.4274393979875992</v>
+      </c>
+      <c r="BF4">
+        <v>0.7407418252935369</v>
+      </c>
+      <c r="BG4">
+        <v>0.7950175711406363</v>
+      </c>
+      <c r="BH4">
+        <v>0.487736859285773</v>
       </c>
       <c r="BI4">
-        <v>0.9742334638946855</v>
+        <v>0.8348187165130521</v>
       </c>
       <c r="BJ4">
-        <v>0.5330259919517246</v>
+        <v>0.3939519698008421</v>
       </c>
       <c r="BK4">
-        <v>0.9120207682559365</v>
+        <v>0.2551058209187981</v>
+      </c>
+      <c r="BL4">
+        <v>0.3879325705123204</v>
+      </c>
+      <c r="BM4">
+        <v>0.5315348316580065</v>
+      </c>
+      <c r="BN4">
+        <v>0.2604858296631603</v>
+      </c>
+      <c r="BO4">
+        <v>0.8862525602907003</v>
       </c>
       <c r="BP4">
-        <v>0.8024214894705479</v>
-      </c>
-      <c r="BS4">
-        <v>0.7145996130867273</v>
+        <v>1.437508456872323</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9813682957253993</v>
+      </c>
+      <c r="BR4">
+        <v>0.6863359361814722</v>
+      </c>
+      <c r="BT4">
+        <v>0.9468051781024874</v>
       </c>
       <c r="BU4">
-        <v>1.028532984445698</v>
+        <v>0.7947052401443706</v>
       </c>
       <c r="BV4">
-        <v>0.723387486670565</v>
+        <v>0.3203898688961175</v>
+      </c>
+      <c r="BW4">
+        <v>1.060164057404738</v>
+      </c>
+      <c r="BX4">
+        <v>0.6496411432339243</v>
+      </c>
+      <c r="BY4">
+        <v>1.011471755011043</v>
+      </c>
+      <c r="BZ4">
+        <v>0.3471087755888145</v>
+      </c>
+      <c r="CA4">
+        <v>0.5920660493310458</v>
+      </c>
+      <c r="CB4">
+        <v>1.803610941114483</v>
+      </c>
+      <c r="CC4">
+        <v>0.7882298187847053</v>
+      </c>
+      <c r="CD4">
+        <v>1.105729213712213</v>
+      </c>
+      <c r="CE4">
+        <v>0.3020053560742289</v>
       </c>
       <c r="CF4">
-        <v>1.088972739749356</v>
+        <v>1.719197719575556</v>
+      </c>
+      <c r="CG4">
+        <v>2.178382585777865</v>
       </c>
       <c r="CH4">
-        <v>0.6828274715222441</v>
+        <v>0.7151708473224025</v>
+      </c>
+      <c r="CI4">
+        <v>0.8997584724075086</v>
       </c>
       <c r="CK4">
-        <v>1.051461695941891</v>
+        <v>0.8269986670102362</v>
+      </c>
+      <c r="CL4">
+        <v>0.8771993344659403</v>
+      </c>
+      <c r="CM4">
+        <v>1.63833467449122</v>
       </c>
       <c r="CN4">
-        <v>1.290501149192303</v>
+        <v>1.372865892561049</v>
+      </c>
+      <c r="CO4">
+        <v>0.6404119912178907</v>
+      </c>
+      <c r="CP4">
+        <v>1.072895606128099</v>
+      </c>
+      <c r="CQ4">
+        <v>1.792530884649433</v>
+      </c>
+      <c r="CR4">
+        <v>0.2297835108719186</v>
+      </c>
+      <c r="CS4">
+        <v>2.359126407236151</v>
+      </c>
+      <c r="CT4">
+        <v>0.6152819697101488</v>
+      </c>
+      <c r="CU4">
+        <v>0.6144253122543266</v>
+      </c>
+      <c r="CV4">
+        <v>0.4045916410326865</v>
+      </c>
+      <c r="CW4">
+        <v>1.129087301703655</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6837044852402732</v>
+        <v>0.6800281333279693</v>
+      </c>
+      <c r="C5">
+        <v>0.3948886460103937</v>
       </c>
       <c r="D5">
-        <v>0.5245173209734891</v>
+        <v>0.1632400768849711</v>
       </c>
       <c r="E5">
-        <v>0.6624929761979546</v>
+        <v>0.4938774940015394</v>
       </c>
       <c r="F5">
-        <v>0.5076103756390684</v>
+        <v>0.6186954759876896</v>
       </c>
       <c r="H5">
-        <v>0.7771109806692942</v>
+        <v>0.4946793214656641</v>
       </c>
       <c r="I5">
-        <v>0.5568714597178429</v>
+        <v>0.3691590971058353</v>
+      </c>
+      <c r="J5">
+        <v>0.7579277788205937</v>
       </c>
       <c r="K5">
-        <v>0.8932382242217852</v>
+        <v>0.537613624033951</v>
+      </c>
+      <c r="L5">
+        <v>0.2317140047423848</v>
       </c>
       <c r="M5">
-        <v>0.3864239080619336</v>
+        <v>0.3555163645505719</v>
       </c>
       <c r="N5">
-        <v>0.6944978453796544</v>
+        <v>0.7717867742497719</v>
       </c>
       <c r="O5">
-        <v>0.5579447394865124</v>
+        <v>0.6583203491552984</v>
       </c>
       <c r="P5">
-        <v>0.722426107342384</v>
+        <v>0.6529531336072001</v>
+      </c>
+      <c r="Q5">
+        <v>0.5201874402309569</v>
+      </c>
+      <c r="R5">
+        <v>0.6708716460784139</v>
       </c>
       <c r="S5">
-        <v>0.522563767665176</v>
+        <v>0.397247385245977</v>
+      </c>
+      <c r="T5">
+        <v>0.4209679807219107</v>
+      </c>
+      <c r="U5">
+        <v>0.9830053422821498</v>
+      </c>
+      <c r="V5">
+        <v>0.2715237289716951</v>
       </c>
       <c r="W5">
-        <v>0.5370993156778736</v>
+        <v>0.4674834030952635</v>
+      </c>
+      <c r="X5">
+        <v>0.5019199326232335</v>
       </c>
       <c r="Y5">
-        <v>0.8412923769037597</v>
+        <v>0.8445593014976526</v>
       </c>
       <c r="Z5">
-        <v>0.9835946295317852</v>
+        <v>0.9328484626342951</v>
+      </c>
+      <c r="AA5">
+        <v>0.6703500584602557</v>
       </c>
       <c r="AB5">
-        <v>0.7476775685399368</v>
+        <v>0.3546866474228945</v>
+      </c>
+      <c r="AC5">
+        <v>0.5028049485293113</v>
+      </c>
+      <c r="AD5">
+        <v>0.7856872746331439</v>
+      </c>
+      <c r="AF5">
+        <v>0.8413946790737904</v>
+      </c>
+      <c r="AG5">
+        <v>0.5821429939302744</v>
+      </c>
+      <c r="AH5">
+        <v>0.3026116177963388</v>
+      </c>
+      <c r="AI5">
+        <v>0.6025047623159644</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5078483472344774</v>
+      </c>
+      <c r="AL5">
+        <v>0.4419033746953373</v>
+      </c>
+      <c r="AM5">
+        <v>0.6544990194052316</v>
+      </c>
+      <c r="AN5">
+        <v>0.4724531409304976</v>
+      </c>
+      <c r="AO5">
+        <v>0.3917414766020675</v>
+      </c>
+      <c r="AP5">
+        <v>0.9215183969888125</v>
       </c>
       <c r="AQ5">
-        <v>0.7941295251453662</v>
+        <v>0.5453813862214866</v>
       </c>
       <c r="AR5">
-        <v>0.7598223930896894</v>
+        <v>0.3193979098375588</v>
       </c>
       <c r="AS5">
-        <v>0.6554322154883403</v>
+        <v>1.051887592379229</v>
       </c>
       <c r="AT5">
-        <v>0.7741217471968629</v>
+        <v>0.5612751713984534</v>
       </c>
       <c r="AU5">
-        <v>0.8457578030076935</v>
-      </c>
-      <c r="AX5">
-        <v>0.6157954221707347</v>
+        <v>0.2821620791894386</v>
+      </c>
+      <c r="AV5">
+        <v>0.7393389306708906</v>
+      </c>
+      <c r="AY5">
+        <v>0.4138569294929338</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9492059068487591</v>
+      </c>
+      <c r="BA5">
+        <v>0.9758571088653042</v>
       </c>
       <c r="BB5">
-        <v>1.009341066751048</v>
+        <v>0.8976026632566163</v>
       </c>
       <c r="BC5">
-        <v>0.6431788908240084</v>
+        <v>0.28629591466785</v>
+      </c>
+      <c r="BD5">
+        <v>0.4138751383780705</v>
       </c>
       <c r="BE5">
-        <v>0.8951779913575009</v>
+        <v>0.22386386239593</v>
+      </c>
+      <c r="BF5">
+        <v>0.7568902713344464</v>
+      </c>
+      <c r="BG5">
+        <v>0.6547831538538175</v>
+      </c>
+      <c r="BH5">
+        <v>0.3992521242324756</v>
       </c>
       <c r="BI5">
-        <v>0.9740230487002441</v>
+        <v>0.6334146863645449</v>
+      </c>
+      <c r="BJ5">
+        <v>0.2954555049504616</v>
       </c>
       <c r="BK5">
-        <v>0.775267006220092</v>
+        <v>0.228379923432939</v>
+      </c>
+      <c r="BM5">
+        <v>0.4647050019493184</v>
+      </c>
+      <c r="BN5">
+        <v>0.2084472524030663</v>
+      </c>
+      <c r="BO5">
+        <v>1.085875706891264</v>
       </c>
       <c r="BP5">
-        <v>0.6245969033183291</v>
-      </c>
-      <c r="BS5">
-        <v>0.6488010666914799</v>
+        <v>1.24803646733187</v>
+      </c>
+      <c r="BQ5">
+        <v>0.8573769311902404</v>
+      </c>
+      <c r="BR5">
+        <v>0.6175830023139042</v>
+      </c>
+      <c r="BT5">
+        <v>0.7239824461947812</v>
       </c>
       <c r="BU5">
-        <v>0.8879548610372194</v>
+        <v>0.5351326691391058</v>
       </c>
       <c r="BV5">
-        <v>0.8741922090663926</v>
+        <v>0.3332219924259079</v>
+      </c>
+      <c r="BW5">
+        <v>0.8924407623856725</v>
+      </c>
+      <c r="BX5">
+        <v>0.4949562396277812</v>
+      </c>
+      <c r="BY5">
+        <v>1.095882654547887</v>
       </c>
       <c r="BZ5">
-        <v>0.5213741755546931</v>
+        <v>0.3547545718047234</v>
+      </c>
+      <c r="CA5">
+        <v>0.5441323098492403</v>
+      </c>
+      <c r="CB5">
+        <v>1.326841599789015</v>
       </c>
       <c r="CC5">
-        <v>0.5749274030756064</v>
+        <v>0.9174129667525548</v>
+      </c>
+      <c r="CD5">
+        <v>0.8894768177834276</v>
+      </c>
+      <c r="CE5">
+        <v>0.3582677003271162</v>
+      </c>
+      <c r="CF5">
+        <v>2.725276849543459</v>
+      </c>
+      <c r="CG5">
+        <v>2.102556475073418</v>
       </c>
       <c r="CH5">
-        <v>0.7980894420410251</v>
+        <v>0.660118958902873</v>
+      </c>
+      <c r="CI5">
+        <v>0.9643952821187612</v>
       </c>
       <c r="CK5">
-        <v>0.9462507259480394</v>
+        <v>0.9677840437967972</v>
+      </c>
+      <c r="CL5">
+        <v>0.3127418489710825</v>
+      </c>
+      <c r="CM5">
+        <v>2.114159018904405</v>
+      </c>
+      <c r="CN5">
+        <v>1.709712496893407</v>
+      </c>
+      <c r="CO5">
+        <v>0.8560693738080011</v>
       </c>
       <c r="CP5">
-        <v>0.7659585566807863</v>
+        <v>1.37017564000897</v>
+      </c>
+      <c r="CQ5">
+        <v>2.091318433462975</v>
+      </c>
+      <c r="CR5">
+        <v>0.6023425273936188</v>
       </c>
       <c r="CS5">
-        <v>0.6312394128553964</v>
+        <v>2.328708739763988</v>
+      </c>
+      <c r="CT5">
+        <v>0.2767675735565202</v>
+      </c>
+      <c r="CU5">
+        <v>0.2685367124066159</v>
+      </c>
+      <c r="CV5">
+        <v>0.8223957444712587</v>
+      </c>
+      <c r="CW5">
+        <v>1.391822364860518</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6328156342135457</v>
+        <v>0.6267398986699643</v>
+      </c>
+      <c r="C6">
+        <v>0.7218017895094324</v>
+      </c>
+      <c r="D6">
+        <v>0.2726029634649453</v>
       </c>
       <c r="E6">
-        <v>0.8326114518999437</v>
+        <v>0.5451918495965291</v>
       </c>
       <c r="F6">
-        <v>0.8047134434618147</v>
+        <v>0.7673670235016201</v>
       </c>
       <c r="H6">
-        <v>0.8721117231162551</v>
+        <v>0.7894012684938769</v>
       </c>
       <c r="I6">
-        <v>0.7655344539492747</v>
+        <v>0.3052376211915467</v>
+      </c>
+      <c r="J6">
+        <v>0.8295606437073731</v>
       </c>
       <c r="K6">
-        <v>0.8251030245028923</v>
+        <v>0.7250089317079772</v>
+      </c>
+      <c r="L6">
+        <v>0.338928519227368</v>
       </c>
       <c r="M6">
-        <v>0.3463173072287914</v>
+        <v>0.293707881439459</v>
       </c>
       <c r="N6">
-        <v>0.8619863887252531</v>
+        <v>0.7082157043355265</v>
+      </c>
+      <c r="O6">
+        <v>0.5910271984202888</v>
       </c>
       <c r="P6">
-        <v>0.9355154433141655</v>
+        <v>0.8356655202400917</v>
+      </c>
+      <c r="Q6">
+        <v>0.4674841677674509</v>
+      </c>
+      <c r="R6">
+        <v>0.8658439953391867</v>
       </c>
       <c r="S6">
-        <v>0.5315230589182445</v>
+        <v>0.3571579908134203</v>
+      </c>
+      <c r="T6">
+        <v>0.3733844047616279</v>
+      </c>
+      <c r="U6">
+        <v>1.155388320786926</v>
+      </c>
+      <c r="V6">
+        <v>0.2272459520051633</v>
       </c>
       <c r="W6">
-        <v>0.6565678694615504</v>
+        <v>0.5992393502703022</v>
+      </c>
+      <c r="X6">
+        <v>0.273906420327424</v>
       </c>
       <c r="Y6">
-        <v>0.8516300166351487</v>
+        <v>0.8492187910326852</v>
       </c>
       <c r="Z6">
-        <v>1.505248632553599</v>
+        <v>1.521543921526402</v>
       </c>
       <c r="AA6">
-        <v>0.5946662539403363</v>
+        <v>0.7386717378195381</v>
       </c>
       <c r="AB6">
-        <v>1.082310333488894</v>
+        <v>0.4213235464312298</v>
+      </c>
+      <c r="AC6">
+        <v>0.6223713633999522</v>
+      </c>
+      <c r="AD6">
+        <v>0.8199623396869334</v>
+      </c>
+      <c r="AF6">
+        <v>0.8670487896409682</v>
+      </c>
+      <c r="AG6">
+        <v>0.5917431840097886</v>
+      </c>
+      <c r="AH6">
+        <v>0.466103010111047</v>
+      </c>
+      <c r="AI6">
+        <v>0.5591445699746744</v>
+      </c>
+      <c r="AJ6">
+        <v>0.5132104072925345</v>
+      </c>
+      <c r="AK6">
+        <v>0.3179123854738218</v>
+      </c>
+      <c r="AL6">
+        <v>0.528238755374403</v>
+      </c>
+      <c r="AM6">
+        <v>0.8652661928663216</v>
+      </c>
+      <c r="AN6">
+        <v>0.646740293337329</v>
+      </c>
+      <c r="AO6">
+        <v>0.5542395386265012</v>
+      </c>
+      <c r="AP6">
+        <v>1.274797471778981</v>
       </c>
       <c r="AQ6">
-        <v>1.092796790089485</v>
+        <v>0.6443668060051769</v>
       </c>
       <c r="AR6">
-        <v>0.7229028090937764</v>
+        <v>0.3855326527897486</v>
       </c>
       <c r="AS6">
-        <v>0.8066717914477259</v>
+        <v>1.283808173015872</v>
       </c>
       <c r="AT6">
-        <v>0.8040239783311371</v>
+        <v>0.8537707845588496</v>
       </c>
       <c r="AU6">
-        <v>0.8768223888415185</v>
+        <v>0.2710934561299137</v>
+      </c>
+      <c r="AV6">
+        <v>0.9923214239734895</v>
+      </c>
+      <c r="AW6">
+        <v>0.354857677504814</v>
       </c>
       <c r="AX6">
-        <v>0.583152306742892</v>
+        <v>0.3961501892677907</v>
+      </c>
+      <c r="AY6">
+        <v>0.4165928542879347</v>
       </c>
       <c r="AZ6">
-        <v>0.6159169648426369</v>
+        <v>0.899273235698145</v>
+      </c>
+      <c r="BA6">
+        <v>0.461101596060195</v>
       </c>
       <c r="BB6">
-        <v>0.9515464275393295</v>
+        <v>0.7044320796220622</v>
+      </c>
+      <c r="BC6">
+        <v>0.3228540270921941</v>
+      </c>
+      <c r="BD6">
+        <v>0.5133279277361299</v>
       </c>
       <c r="BE6">
-        <v>0.8100315567113546</v>
+        <v>0.3175275360864383</v>
+      </c>
+      <c r="BF6">
+        <v>0.5810074071171091</v>
+      </c>
+      <c r="BG6">
+        <v>0.682058305984145</v>
+      </c>
+      <c r="BH6">
+        <v>0.3761772809305124</v>
       </c>
       <c r="BI6">
-        <v>0.8181434183569947</v>
+        <v>0.5935219083812955</v>
       </c>
       <c r="BJ6">
-        <v>0.6044264525326475</v>
+        <v>0.3763177288494318</v>
       </c>
       <c r="BK6">
-        <v>0.7223111692146873</v>
+        <v>0.2062155590329892</v>
+      </c>
+      <c r="BL6">
+        <v>0.3536185301460956</v>
+      </c>
+      <c r="BM6">
+        <v>0.655148685419084</v>
+      </c>
+      <c r="BN6">
+        <v>0.2840938734179153</v>
+      </c>
+      <c r="BO6">
+        <v>1.01270212654587</v>
       </c>
       <c r="BP6">
-        <v>0.8000573172368337</v>
+        <v>1.22943144129359</v>
+      </c>
+      <c r="BQ6">
+        <v>0.8963950176290888</v>
       </c>
       <c r="BR6">
-        <v>0.635669451756243</v>
+        <v>0.622326309377827</v>
       </c>
       <c r="BS6">
-        <v>0.6750565897103754</v>
+        <v>0.7516771439008804</v>
+      </c>
+      <c r="BT6">
+        <v>0.80772502711031</v>
       </c>
       <c r="BU6">
-        <v>0.8151939313120679</v>
+        <v>0.7682069147929957</v>
       </c>
       <c r="BV6">
-        <v>0.6736765045057093</v>
+        <v>0.3032860500844776</v>
+      </c>
+      <c r="BW6">
+        <v>0.8849365366640058</v>
+      </c>
+      <c r="BX6">
+        <v>0.6065824242115418</v>
+      </c>
+      <c r="BY6">
+        <v>1.252149794289352</v>
       </c>
       <c r="BZ6">
-        <v>0.5217845566842275</v>
+        <v>0.2863522869363206</v>
       </c>
       <c r="CA6">
-        <v>0.8450107201946114</v>
+        <v>0.6319856248001881</v>
+      </c>
+      <c r="CB6">
+        <v>1.369963838317663</v>
       </c>
       <c r="CC6">
-        <v>0.6280486533123124</v>
+        <v>0.8171621882006327</v>
+      </c>
+      <c r="CD6">
+        <v>1.134058598228403</v>
+      </c>
+      <c r="CE6">
+        <v>0.3529493593439829</v>
       </c>
       <c r="CF6">
-        <v>1.325814914641736</v>
+        <v>1.555752787673758</v>
       </c>
       <c r="CG6">
-        <v>1.376317818126336</v>
+        <v>3.424526079237767</v>
       </c>
       <c r="CH6">
-        <v>0.7290179907153259</v>
+        <v>0.7177315693628545</v>
+      </c>
+      <c r="CI6">
+        <v>0.9461609349301243</v>
       </c>
       <c r="CK6">
-        <v>0.8560210009669743</v>
+        <v>1.067077661531785</v>
+      </c>
+      <c r="CL6">
+        <v>0.376376047340847</v>
+      </c>
+      <c r="CM6">
+        <v>2.43299566175438</v>
       </c>
       <c r="CN6">
-        <v>1.462533596723707</v>
+        <v>1.353620847570283</v>
+      </c>
+      <c r="CO6">
+        <v>0.771796533428857</v>
       </c>
       <c r="CP6">
-        <v>0.5404607113210111</v>
+        <v>1.224574271013766</v>
+      </c>
+      <c r="CQ6">
+        <v>1.397022169599224</v>
       </c>
       <c r="CR6">
-        <v>0.5307040472672327</v>
+        <v>0.5308569768569514</v>
       </c>
       <c r="CS6">
-        <v>0.5635174066938089</v>
+        <v>2.044902026065495</v>
+      </c>
+      <c r="CT6">
+        <v>0.3296003376104242</v>
+      </c>
+      <c r="CU6">
+        <v>0.2478663519977783</v>
+      </c>
+      <c r="CV6">
+        <v>0.6889302189682758</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5979310444303468</v>
+        <v>0.5884788103905579</v>
+      </c>
+      <c r="C7">
+        <v>0.2693255144809895</v>
+      </c>
+      <c r="D7">
+        <v>0.1654312453081784</v>
       </c>
       <c r="E7">
-        <v>0.6580232589733654</v>
+        <v>0.3656003134060061</v>
       </c>
       <c r="F7">
-        <v>0.7229797440162301</v>
+        <v>0.5778737899020165</v>
       </c>
       <c r="H7">
-        <v>0.771543504707475</v>
+        <v>0.7154629760547665</v>
       </c>
       <c r="I7">
-        <v>0.6217210283098689</v>
+        <v>0.6163454484881939</v>
+      </c>
+      <c r="J7">
+        <v>0.720912175852865</v>
       </c>
       <c r="K7">
-        <v>0.8841614043471397</v>
+        <v>0.5999056283060109</v>
+      </c>
+      <c r="L7">
+        <v>0.2015275788298889</v>
       </c>
       <c r="M7">
-        <v>0.3443234735304677</v>
+        <v>0.3056127897491774</v>
       </c>
       <c r="N7">
-        <v>0.6213915697391469</v>
+        <v>0.7861758960263556</v>
       </c>
       <c r="O7">
-        <v>0.6100852109274234</v>
+        <v>0.4074194072882849</v>
       </c>
       <c r="P7">
-        <v>0.682140685919805</v>
+        <v>0.5435776148587378</v>
+      </c>
+      <c r="Q7">
+        <v>0.5996646699430918</v>
+      </c>
+      <c r="R7">
+        <v>0.5637269792547869</v>
       </c>
       <c r="S7">
-        <v>0.6416989652690543</v>
+        <v>0.471288468291756</v>
+      </c>
+      <c r="T7">
+        <v>0.4429042760480972</v>
+      </c>
+      <c r="U7">
+        <v>0.7943689399611749</v>
+      </c>
+      <c r="V7">
+        <v>0.2404962269432334</v>
       </c>
       <c r="W7">
-        <v>0.5809306952579395</v>
+        <v>0.5048142365674414</v>
+      </c>
+      <c r="X7">
+        <v>0.3251386911476908</v>
       </c>
       <c r="Y7">
-        <v>0.8059628203102518</v>
+        <v>0.7823696789853698</v>
       </c>
       <c r="Z7">
-        <v>0.7961096169552514</v>
+        <v>0.6776597342190417</v>
+      </c>
+      <c r="AA7">
+        <v>0.6529232355079277</v>
       </c>
       <c r="AB7">
-        <v>0.5384321748233489</v>
+        <v>0.5152485016884382</v>
+      </c>
+      <c r="AC7">
+        <v>0.6780935199170778</v>
+      </c>
+      <c r="AD7">
+        <v>0.6476968071501804</v>
+      </c>
+      <c r="AE7">
+        <v>1.036793144241298</v>
+      </c>
+      <c r="AF7">
+        <v>0.7063467921548329</v>
+      </c>
+      <c r="AG7">
+        <v>0.922210413322845</v>
+      </c>
+      <c r="AH7">
+        <v>0.3870564968423526</v>
+      </c>
+      <c r="AI7">
+        <v>0.5512678827580778</v>
+      </c>
+      <c r="AJ7">
+        <v>0.4040041415418112</v>
       </c>
       <c r="AK7">
-        <v>0.487864836225136</v>
+        <v>0.4271209425469141</v>
+      </c>
+      <c r="AL7">
+        <v>0.5144457677934653</v>
+      </c>
+      <c r="AM7">
+        <v>0.7739782401953295</v>
+      </c>
+      <c r="AN7">
+        <v>0.5619516228839865</v>
+      </c>
+      <c r="AO7">
+        <v>0.5406794115902676</v>
+      </c>
+      <c r="AP7">
+        <v>0.82688012680136</v>
       </c>
       <c r="AQ7">
-        <v>0.6449443782570766</v>
+        <v>0.3216403720407742</v>
       </c>
       <c r="AR7">
-        <v>0.5584700984836168</v>
+        <v>0.4554454631313552</v>
       </c>
       <c r="AS7">
-        <v>0.4691807910669562</v>
+        <v>0.9129108172753604</v>
       </c>
       <c r="AT7">
-        <v>0.6579450831990563</v>
+        <v>0.3416121217444371</v>
       </c>
       <c r="AU7">
-        <v>0.7189777512929435</v>
+        <v>0.4293507370824811</v>
+      </c>
+      <c r="AV7">
+        <v>0.5648521816727988</v>
+      </c>
+      <c r="AW7">
+        <v>0.3942157885625171</v>
       </c>
       <c r="AX7">
-        <v>0.5795471258096</v>
+        <v>0.491673664686286</v>
+      </c>
+      <c r="AY7">
+        <v>0.406778855104703</v>
+      </c>
+      <c r="AZ7">
+        <v>0.7377701975930279</v>
+      </c>
+      <c r="BA7">
+        <v>0.6503709213726768</v>
       </c>
       <c r="BB7">
-        <v>1.081996348224391</v>
+        <v>0.7106286837318067</v>
       </c>
       <c r="BC7">
-        <v>0.7329781807269623</v>
+        <v>0.2768707502056542</v>
+      </c>
+      <c r="BD7">
+        <v>0.3667186211068352</v>
+      </c>
+      <c r="BE7">
+        <v>0.2988182966606465</v>
+      </c>
+      <c r="BF7">
+        <v>0.5875946453750002</v>
+      </c>
+      <c r="BG7">
+        <v>0.5550063460690063</v>
+      </c>
+      <c r="BH7">
+        <v>0.2977825413858162</v>
       </c>
       <c r="BI7">
-        <v>0.9266856027620983</v>
+        <v>0.5514193344751737</v>
       </c>
       <c r="BJ7">
-        <v>0.4778179532917849</v>
+        <v>0.2803464852602121</v>
       </c>
       <c r="BK7">
-        <v>0.8288822273919129</v>
+        <v>0.1707404014828631</v>
+      </c>
+      <c r="BL7">
+        <v>0.3905178040287037</v>
+      </c>
+      <c r="BM7">
+        <v>0.4865313870842793</v>
+      </c>
+      <c r="BN7">
+        <v>0.2294819794812246</v>
+      </c>
+      <c r="BO7">
+        <v>1.058949937544145</v>
       </c>
       <c r="BP7">
-        <v>0.444147582367092</v>
+        <v>0.9567145534688157</v>
+      </c>
+      <c r="BQ7">
+        <v>0.8201218066603339</v>
       </c>
       <c r="BR7">
-        <v>0.453158310030389</v>
-      </c>
-      <c r="BS7">
-        <v>0.5911784387913059</v>
+        <v>0.5295664376037138</v>
+      </c>
+      <c r="BT7">
+        <v>0.8825578098982945</v>
       </c>
       <c r="BU7">
-        <v>0.9337967269730091</v>
+        <v>0.6944371384420623</v>
       </c>
       <c r="BV7">
-        <v>0.6786820031004382</v>
+        <v>0.325029686517654</v>
+      </c>
+      <c r="BW7">
+        <v>0.923915047384163</v>
+      </c>
+      <c r="BX7">
+        <v>0.4617519782951701</v>
+      </c>
+      <c r="BY7">
+        <v>0.9307752109717458</v>
+      </c>
+      <c r="BZ7">
+        <v>0.3179999740078053</v>
+      </c>
+      <c r="CA7">
+        <v>0.4722269628507286</v>
+      </c>
+      <c r="CB7">
+        <v>1.274022889883862</v>
+      </c>
+      <c r="CC7">
+        <v>0.8054499683242538</v>
+      </c>
+      <c r="CD7">
+        <v>1.067768381262466</v>
+      </c>
+      <c r="CE7">
+        <v>0.3367752681128591</v>
       </c>
       <c r="CF7">
-        <v>1.294585361118262</v>
+        <v>1.667231214367772</v>
       </c>
       <c r="CG7">
-        <v>1.383612509137516</v>
+        <v>2.390055913433911</v>
       </c>
       <c r="CH7">
-        <v>0.543027100512761</v>
+        <v>0.697710861646005</v>
+      </c>
+      <c r="CI7">
+        <v>0.6546138315718042</v>
+      </c>
+      <c r="CK7">
+        <v>0.9231396511043469</v>
+      </c>
+      <c r="CL7">
+        <v>0.3120687963650101</v>
+      </c>
+      <c r="CM7">
+        <v>2.083263937038645</v>
+      </c>
+      <c r="CN7">
+        <v>1.738814322804517</v>
+      </c>
+      <c r="CO7">
+        <v>0.7963747953986551</v>
+      </c>
+      <c r="CP7">
+        <v>0.9721712854391121</v>
+      </c>
+      <c r="CQ7">
+        <v>1.285503980426717</v>
+      </c>
+      <c r="CR7">
+        <v>0.3584914430799883</v>
+      </c>
+      <c r="CS7">
+        <v>1.650337340463301</v>
+      </c>
+      <c r="CT7">
+        <v>0.2478963661493445</v>
+      </c>
+      <c r="CU7">
+        <v>0.2579441166193563</v>
+      </c>
+      <c r="CV7">
+        <v>0.4616662358035911</v>
       </c>
     </row>
   </sheetData>
